--- a/results/Hyperparameter_Tuning/Graph_Embedding_FNN.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_FNN.xlsx
@@ -17,7 +17,7 @@
     <sheet name="node2vec_nw8_wl64" sheetId="22" state="hidden" r:id="rId3"/>
     <sheet name="node2vec_nw8_wl32" sheetId="23" r:id="rId4"/>
     <sheet name="struc2vec" sheetId="11" r:id="rId5"/>
-    <sheet name="LINE" sheetId="12" r:id="rId6"/>
+    <sheet name="LINE" sheetId="12" state="hidden" r:id="rId6"/>
     <sheet name="LINE_weighted" sheetId="37" r:id="rId7"/>
     <sheet name="SDNE" sheetId="13" r:id="rId8"/>
     <sheet name="GraRep" sheetId="18" r:id="rId9"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="99">
   <si>
     <t>Accuracy</t>
   </si>
@@ -340,15 +340,6 @@
     <t>Weighted</t>
   </si>
   <si>
-    <t>Network Reconstruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unbalanced -- Move to other file </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experimentally verified -- Move to other file </t>
-  </si>
-  <si>
     <t>Order 1</t>
   </si>
 </sst>
@@ -582,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -696,13 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -711,6 +695,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,7 +767,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1329,7 +1318,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1411,7 +1399,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2399,7 +2386,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11182,7 +11168,7 @@
       <c r="I25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="81" t="s">
+      <c r="J25" s="87" t="s">
         <v>90</v>
       </c>
     </row>
@@ -11200,7 +11186,7 @@
       <c r="I26" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="82"/>
+      <c r="J26" s="88"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -11216,7 +11202,7 @@
       <c r="I27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="82"/>
+      <c r="J27" s="88"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -11232,7 +11218,7 @@
       <c r="I28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="82"/>
+      <c r="J28" s="88"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -11248,7 +11234,7 @@
       <c r="I29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="82"/>
+      <c r="J29" s="88"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="76"/>
@@ -16813,7 +16799,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="81" t="s">
         <v>96</v>
       </c>
     </row>
@@ -17839,10 +17825,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17854,1148 +17840,1004 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="83" t="s">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="82" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J2" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="66"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="11" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="22">
+      <c r="J4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K4">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="L4">
-        <v>0.98209999999999997</v>
-      </c>
-      <c r="M4">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="N4">
-        <v>0.94969999999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.96560000000000001</v>
-      </c>
-      <c r="P4">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="69">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="H5" s="3">
         <v>0.99360000000000004</v>
       </c>
-      <c r="Q4">
-        <v>0.99319999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="22">
         <v>5</v>
       </c>
-      <c r="J5" s="23">
+      <c r="K5">
+        <v>0.5756</v>
+      </c>
+      <c r="L5">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="M5">
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="O5">
+        <v>0.68379999999999996</v>
+      </c>
+      <c r="P5">
+        <v>0.60680000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.58420000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="64">
         <v>10</v>
       </c>
-      <c r="K5" s="20">
-        <v>0.95920000000000005</v>
-      </c>
-      <c r="L5" s="20">
-        <v>0.97130000000000005</v>
-      </c>
-      <c r="M5" s="20">
-        <v>0.94710000000000005</v>
-      </c>
-      <c r="N5" s="20">
-        <v>0.94840000000000002</v>
-      </c>
-      <c r="O5" s="20">
-        <v>0.9597</v>
-      </c>
-      <c r="P5" s="20">
-        <v>0.9889</v>
-      </c>
-      <c r="Q5" s="20">
-        <v>0.98799999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="69">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.96550000000000002</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.98119999999999996</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.94979999999999998</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.95130000000000003</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.99350000000000005</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.99360000000000004</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="B6" s="32">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="C6" s="64">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="D6" s="64">
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="E6" s="64">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="G6" s="86">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H6" s="86">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="J6" s="83">
+        <v>10</v>
+      </c>
+      <c r="K6" s="84">
+        <v>0.80379999999999996</v>
+      </c>
+      <c r="L6" s="84">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="M6" s="84">
+        <v>0.83809999999999996</v>
+      </c>
+      <c r="N6" s="84">
+        <v>0.82640000000000002</v>
+      </c>
+      <c r="O6" s="84">
+        <v>0.79669999999999996</v>
+      </c>
+      <c r="P6" s="84">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="Q6" s="84">
+        <v>0.85640000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>15</v>
       </c>
-      <c r="K6">
-        <v>0.96050000000000002</v>
-      </c>
-      <c r="L6">
-        <v>0.97709999999999997</v>
-      </c>
-      <c r="M6">
-        <v>0.94389999999999996</v>
-      </c>
-      <c r="N6">
-        <v>0.94579999999999997</v>
-      </c>
-      <c r="O6">
-        <v>0.96120000000000005</v>
-      </c>
-      <c r="P6">
+      <c r="B7" s="3">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.9879</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.92869999999999997</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.93269999999999997</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="H7" s="3">
         <v>0.99180000000000001</v>
       </c>
-      <c r="Q6">
-        <v>0.98899999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="64">
-        <v>10</v>
-      </c>
-      <c r="B7" s="32">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="C7" s="64">
-        <v>0.97889999999999999</v>
-      </c>
-      <c r="D7" s="64">
-        <v>0.95520000000000005</v>
-      </c>
-      <c r="E7" s="64">
-        <v>0.95620000000000005</v>
-      </c>
-      <c r="F7" s="32">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="G7" s="89">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="H7" s="89">
-        <v>0.99009999999999998</v>
-      </c>
       <c r="J7" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <v>0.96950000000000003</v>
+        <v>0.6946</v>
       </c>
       <c r="L7">
-        <v>0.98650000000000004</v>
+        <v>0.74529999999999996</v>
       </c>
       <c r="M7">
-        <v>0.95250000000000001</v>
+        <v>0.64390000000000003</v>
       </c>
       <c r="N7">
-        <v>0.95409999999999995</v>
+        <v>0.70179999999999998</v>
       </c>
       <c r="O7">
-        <v>0.97</v>
+        <v>0.71640000000000004</v>
       </c>
       <c r="P7">
-        <v>0.99209999999999998</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="Q7">
-        <v>0.99</v>
+        <v>0.73450000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
-        <v>0.95830000000000004</v>
+        <v>0.96660000000000001</v>
       </c>
       <c r="C8" s="3">
-        <v>0.9879</v>
+        <v>0.98209999999999997</v>
       </c>
       <c r="D8" s="3">
-        <v>0.92869999999999997</v>
+        <v>0.95109999999999995</v>
       </c>
       <c r="E8" s="3">
-        <v>0.93269999999999997</v>
+        <v>0.9526</v>
       </c>
       <c r="F8" s="3">
-        <v>0.95950000000000002</v>
+        <v>0.96709999999999996</v>
       </c>
       <c r="G8" s="3">
-        <v>0.99260000000000004</v>
+        <v>0.99409999999999998</v>
       </c>
       <c r="H8" s="3">
-        <v>0.99180000000000001</v>
+        <v>0.99380000000000002</v>
       </c>
       <c r="J8" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.95740000000000003</v>
+        <v>0.75090000000000001</v>
       </c>
       <c r="L8">
-        <v>0.98429999999999995</v>
+        <v>0.83589999999999998</v>
       </c>
       <c r="M8">
-        <v>0.93049999999999999</v>
+        <v>0.66590000000000005</v>
       </c>
       <c r="N8">
-        <v>0.93410000000000004</v>
+        <v>0.73740000000000006</v>
       </c>
       <c r="O8">
-        <v>0.95850000000000002</v>
+        <v>0.77710000000000001</v>
       </c>
       <c r="P8">
-        <v>0.9889</v>
+        <v>0.82269999999999999</v>
       </c>
       <c r="Q8">
-        <v>0.98780000000000001</v>
+        <v>0.81610000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>0.96660000000000001</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="C9" s="3">
-        <v>0.98209999999999997</v>
+        <v>0.9677</v>
       </c>
       <c r="D9" s="3">
-        <v>0.95109999999999995</v>
+        <v>0.95830000000000004</v>
       </c>
       <c r="E9" s="3">
-        <v>0.9526</v>
+        <v>0.95879999999999999</v>
       </c>
       <c r="F9" s="3">
-        <v>0.96709999999999996</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.99409999999999998</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.99380000000000002</v>
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="G9" s="70">
+        <v>0.995</v>
+      </c>
+      <c r="H9" s="70">
+        <v>0.99480000000000002</v>
       </c>
       <c r="J9" s="4">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="L9">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="M9">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="N9">
+        <v>0.76529999999999998</v>
+      </c>
+      <c r="O9">
+        <v>0.79849999999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="Q9">
+        <v>0.87170000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
-        <v>0.96299999999999997</v>
+        <v>0.96120000000000005</v>
       </c>
       <c r="C10" s="3">
-        <v>0.9677</v>
+        <v>0.98250000000000004</v>
       </c>
       <c r="D10" s="3">
-        <v>0.95830000000000004</v>
+        <v>0.93989999999999996</v>
       </c>
       <c r="E10" s="3">
-        <v>0.95879999999999999</v>
+        <v>0.94240000000000002</v>
       </c>
       <c r="F10" s="3">
-        <v>0.96319999999999995</v>
-      </c>
-      <c r="G10" s="70">
-        <v>0.995</v>
-      </c>
-      <c r="H10" s="70">
-        <v>0.99480000000000002</v>
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.99060000000000004</v>
       </c>
       <c r="J10" s="4">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>0.80110000000000003</v>
+      </c>
+      <c r="L10">
+        <v>0.81569999999999998</v>
+      </c>
+      <c r="M10">
+        <v>0.78649999999999998</v>
+      </c>
+      <c r="N10">
+        <v>0.79320000000000002</v>
+      </c>
+      <c r="O10">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="P10">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3">
-        <v>0.96120000000000005</v>
+        <v>0.96050000000000002</v>
       </c>
       <c r="C11" s="3">
-        <v>0.98250000000000004</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="D11" s="3">
-        <v>0.93989999999999996</v>
+        <v>0.95020000000000004</v>
       </c>
       <c r="E11" s="3">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="J11" s="4">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <v>0.5726</v>
+      </c>
+      <c r="L11">
+        <v>0.8135</v>
+      </c>
+      <c r="M11">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="N11">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="O11">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="P11">
+        <v>0.60489999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>0.60340000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="50">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.95709999999999995</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.9889</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="J12" s="10">
+        <v>40</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="L12">
+        <v>0.79510000000000003</v>
+      </c>
+      <c r="M12">
+        <v>0.81930000000000003</v>
+      </c>
+      <c r="N12">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="O12">
+        <v>0.80479999999999996</v>
+      </c>
+      <c r="P12">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="Q12">
+        <v>0.87239999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.95379999999999998</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="E13" s="3">
         <v>0.94240000000000002</v>
       </c>
-      <c r="F11" s="3">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.99219999999999997</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="J11" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.96050000000000002</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.97089999999999999</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.95020000000000004</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.95130000000000003</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.96089999999999998</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.99150000000000005</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.99009999999999998</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="F13" s="3">
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J13" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="50">
-        <v>40</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.95630000000000004</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.97440000000000004</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.93810000000000004</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.94030000000000002</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.95709999999999995</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.9889</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.98160000000000003</v>
-      </c>
-      <c r="J13" s="4">
-        <v>50</v>
+      <c r="K13">
+        <v>0.55630000000000002</v>
+      </c>
+      <c r="L13">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="N13">
+        <v>0.5716</v>
+      </c>
+      <c r="O13">
+        <v>0.22159999999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="Q13">
+        <v>0.58520000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3">
-        <v>0.95379999999999998</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="C14" s="3">
-        <v>0.96679999999999999</v>
+        <v>0.97130000000000005</v>
       </c>
       <c r="D14" s="3">
         <v>0.94079999999999997</v>
       </c>
       <c r="E14" s="3">
-        <v>0.94240000000000002</v>
+        <v>0.94259999999999999</v>
       </c>
       <c r="F14" s="3">
-        <v>0.95440000000000003</v>
+        <v>0.95669999999999999</v>
       </c>
       <c r="G14" s="3">
-        <v>0.98870000000000002</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="H14" s="3">
-        <v>0.98399999999999999</v>
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="J14" s="4">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="L14">
+        <v>0.7843</v>
+      </c>
+      <c r="M14">
+        <v>0.77759999999999996</v>
+      </c>
+      <c r="N14">
+        <v>0.7792</v>
+      </c>
+      <c r="O14">
+        <v>0.78159999999999996</v>
+      </c>
+      <c r="P14">
+        <v>0.85270000000000001</v>
+      </c>
+      <c r="Q14">
+        <v>0.83989999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>50</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.95609999999999995</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.97130000000000005</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.94079999999999997</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.94259999999999999</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.95669999999999999</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.98229999999999995</v>
-      </c>
-      <c r="J15" s="85" t="s">
-        <v>101</v>
-      </c>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="J16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>5</v>
+      <c r="A16" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3">
+        <f>MAX(B5:B14)</f>
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16:H16" si="0">MAX(F5:F14)</f>
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.995</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="3">
+        <f>MAX(K5:K14)</f>
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3">
+        <f t="shared" ref="O16:Q16" si="1">MAX(O5:O14)</f>
+        <v>0.80479999999999996</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.87239999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
-        <v>22</v>
+      <c r="A17" s="85" t="s">
+        <v>23</v>
       </c>
       <c r="B17" s="3">
-        <f>MAX(B6:B15)</f>
-        <v>0.96699999999999997</v>
+        <f>MIN(B5:B14)</f>
+        <v>0.95379999999999998</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
-        <f t="shared" ref="F17:H17" si="0">MAX(F6:F15)</f>
-        <v>0.96740000000000004</v>
+        <f t="shared" ref="F17:H17" si="2">MIN(F5:F14)</f>
+        <v>0.95440000000000003</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.995</v>
+        <f t="shared" si="2"/>
+        <v>0.98809999999999998</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.99480000000000002</v>
-      </c>
-      <c r="J17" s="22">
+        <f t="shared" si="2"/>
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="3">
+        <f>MIN(K5:K14)</f>
+        <v>0.55630000000000002</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3">
+        <f t="shared" ref="O17:Q17" si="3">MIN(O5:O14)</f>
+        <v>0.22159999999999999</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.58420000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J19" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K17">
-        <v>0.5756</v>
-      </c>
-      <c r="L17">
-        <v>0.91790000000000005</v>
-      </c>
-      <c r="M17">
-        <v>0.23319999999999999</v>
-      </c>
-      <c r="N17">
-        <v>0.54510000000000003</v>
-      </c>
-      <c r="O17">
-        <v>0.68379999999999996</v>
-      </c>
-      <c r="P17">
-        <v>0.60680000000000001</v>
-      </c>
-      <c r="Q17">
-        <v>0.58420000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J21" s="22">
+        <v>5</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="L21">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="M21">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="N21">
+        <v>0.94969999999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="P21">
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="Q21">
+        <v>0.99319999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J22" s="23">
+        <v>10</v>
+      </c>
+      <c r="K22" s="20">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="L22" s="20">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="M22" s="20">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="N22" s="20">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="O22" s="20">
+        <v>0.9597</v>
+      </c>
+      <c r="P22" s="20">
+        <v>0.9889</v>
+      </c>
+      <c r="Q22" s="20">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J23" s="4">
+        <v>15</v>
+      </c>
+      <c r="K23">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="L23">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="M23">
+        <v>0.94389999999999996</v>
+      </c>
+      <c r="N23">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="O23">
+        <v>0.96120000000000005</v>
+      </c>
+      <c r="P23">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="Q23">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J24" s="4">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="L24">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="M24">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.95409999999999995</v>
+      </c>
+      <c r="O24">
+        <v>0.97</v>
+      </c>
+      <c r="P24">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="Q24">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J25" s="4">
+        <v>25</v>
+      </c>
+      <c r="K25">
+        <v>0.95740000000000003</v>
+      </c>
+      <c r="L25">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="M25">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="O25">
+        <v>0.95850000000000002</v>
+      </c>
+      <c r="P25">
+        <v>0.9889</v>
+      </c>
+      <c r="Q25">
+        <v>0.98780000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J26" s="4">
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="L26">
+        <v>0.9839</v>
+      </c>
+      <c r="M26">
+        <v>0.9345</v>
+      </c>
+      <c r="N26">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="P26">
+        <v>0.9889</v>
+      </c>
+      <c r="Q26">
+        <v>0.98460000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J27" s="4">
+        <v>35</v>
+      </c>
+      <c r="K27">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="L27">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="M27">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="N27">
+        <v>0.9355</v>
+      </c>
+      <c r="O27">
+        <v>0.95779999999999998</v>
+      </c>
+      <c r="P27">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="Q27">
+        <v>0.98480000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J28" s="10">
+        <v>40</v>
+      </c>
+      <c r="K28">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="L28">
+        <v>0.9798</v>
+      </c>
+      <c r="M28">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="N28">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="O28">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="P28">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="Q28">
+        <v>0.97729999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J29" s="4">
+        <v>45</v>
+      </c>
+      <c r="K29">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="L29">
+        <v>0.9466</v>
+      </c>
+      <c r="M29">
+        <v>0.86909999999999998</v>
+      </c>
+      <c r="N29">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="O29">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="P29">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="Q29">
+        <v>0.95630000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J30" s="4">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.95609999999999995</v>
+      </c>
+      <c r="L30">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="M30">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="N30">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="O30">
+        <v>0.95689999999999997</v>
+      </c>
+      <c r="P30">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="Q30">
+        <v>0.98519999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J32" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="3">
+        <f>MAX(K21:K30)</f>
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3">
+        <f t="shared" ref="O32:Q32" si="4">MAX(O21:O30)</f>
+        <v>0.97</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="4"/>
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="Q32" s="3">
+        <f t="shared" si="4"/>
+        <v>0.99319999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J33" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3">
-        <f>MIN(B6:B15)</f>
-        <v>0.95379999999999998</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3">
-        <f t="shared" ref="F18:H18" si="1">MIN(F6:F15)</f>
-        <v>0.95440000000000003</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="1"/>
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="1"/>
-        <v>0.98160000000000003</v>
-      </c>
-      <c r="J18" s="86">
-        <v>10</v>
-      </c>
-      <c r="K18" s="87">
-        <v>0.80379999999999996</v>
-      </c>
-      <c r="L18" s="87">
-        <v>0.76949999999999996</v>
-      </c>
-      <c r="M18" s="87">
-        <v>0.83809999999999996</v>
-      </c>
-      <c r="N18" s="87">
-        <v>0.82640000000000002</v>
-      </c>
-      <c r="O18" s="87">
-        <v>0.79669999999999996</v>
-      </c>
-      <c r="P18" s="87">
-        <v>0.86529999999999996</v>
-      </c>
-      <c r="Q18" s="87">
-        <v>0.85640000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J19" s="4">
-        <v>15</v>
-      </c>
-      <c r="K19">
-        <v>0.6946</v>
-      </c>
-      <c r="L19">
-        <v>0.74529999999999996</v>
-      </c>
-      <c r="M19">
-        <v>0.64390000000000003</v>
-      </c>
-      <c r="N19">
-        <v>0.70179999999999998</v>
-      </c>
-      <c r="O19">
-        <v>0.71640000000000004</v>
-      </c>
-      <c r="P19">
-        <v>0.74509999999999998</v>
-      </c>
-      <c r="Q19">
-        <v>0.73450000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" s="4">
-        <v>20</v>
-      </c>
-      <c r="K20">
-        <v>0.75090000000000001</v>
-      </c>
-      <c r="L20">
-        <v>0.83589999999999998</v>
-      </c>
-      <c r="M20">
-        <v>0.66590000000000005</v>
-      </c>
-      <c r="N20">
-        <v>0.73740000000000006</v>
-      </c>
-      <c r="O20">
-        <v>0.77710000000000001</v>
-      </c>
-      <c r="P20">
-        <v>0.82269999999999999</v>
-      </c>
-      <c r="Q20">
-        <v>0.81610000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="4">
-        <v>25</v>
-      </c>
-      <c r="K21">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="L21">
-        <v>0.83540000000000003</v>
-      </c>
-      <c r="M21">
-        <v>0.74260000000000004</v>
-      </c>
-      <c r="N21">
-        <v>0.76529999999999998</v>
-      </c>
-      <c r="O21">
-        <v>0.79849999999999999</v>
-      </c>
-      <c r="P21">
-        <v>0.87529999999999997</v>
-      </c>
-      <c r="Q21">
-        <v>0.87170000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="69">
-        <v>5</v>
-      </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="J22" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.91710000000000003</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.62190000000000001</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.94989999999999997</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.57989999999999997</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.59989999999999999</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.93230000000000002</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="J23" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="J24" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="J25" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="J26" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>35</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="50">
-        <v>40</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>45</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>50</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="69">
-        <v>5</v>
-      </c>
-      <c r="B35" s="70">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="C35" s="70">
-        <v>0.94130000000000003</v>
-      </c>
-      <c r="D35" s="70">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="E35" s="70">
-        <v>0.98829999999999996</v>
-      </c>
-      <c r="F35" s="70">
-        <v>0.96419999999999995</v>
-      </c>
-      <c r="G35" s="70">
-        <v>0.99229999999999996</v>
-      </c>
-      <c r="H35" s="70">
-        <v>0.98419999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>10</v>
-      </c>
-      <c r="B36" s="50">
-        <v>0.95579999999999998</v>
-      </c>
-      <c r="C36" s="50">
-        <v>0.97219999999999995</v>
-      </c>
-      <c r="D36" s="50">
-        <v>0.9395</v>
-      </c>
-      <c r="E36" s="50">
-        <v>0.94140000000000001</v>
-      </c>
-      <c r="F36" s="50">
-        <v>0.95650000000000002</v>
-      </c>
-      <c r="G36" s="50">
-        <v>0.94889999999999997</v>
-      </c>
-      <c r="H36" s="50">
-        <v>0.88739999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>15</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.80310000000000004</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.64129999999999998</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0.74109999999999998</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.83540000000000003</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0.95469999999999999</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0.95230000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>20</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0.74619999999999997</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0.97529999999999994</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0.67069999999999996</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.79430000000000001</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0.96309999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>25</v>
-      </c>
-      <c r="B39" s="3">
-        <v>0.58450000000000002</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0.96230000000000004</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.20669999999999999</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0.54830000000000001</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.69850000000000001</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0.78410000000000002</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0.7379</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>30</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0.5343</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0.97440000000000004</v>
-      </c>
-      <c r="D40" s="3">
-        <v>9.4200000000000006E-2</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0.51859999999999995</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.67689999999999995</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0.71279999999999999</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0.63280000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>35</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0.56789999999999996</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0.95830000000000004</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0.17760000000000001</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0.53879999999999995</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.6895</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0.74460000000000004</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0.68600000000000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="50">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0.58630000000000004</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0.98519999999999996</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0.18740000000000001</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0.54859999999999998</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.7046</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0.8105</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0.73340000000000005</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>45</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0.61480000000000001</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0.9798</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.24979999999999999</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0.56679999999999997</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0.77090000000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>50</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0.67559999999999998</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0.98209999999999997</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.36909999999999998</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.60940000000000005</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.75190000000000001</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0.83340000000000003</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0.73429999999999995</v>
+      <c r="K33" s="3">
+        <f>MIN(K21:K30)</f>
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3">
+        <f t="shared" ref="O33:Q33" si="5">MIN(O21:O30)</f>
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="Q33" s="3">
+        <f t="shared" si="5"/>
+        <v>0.95630000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/results/Hyperparameter_Tuning/Graph_Embedding_FNN.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_FNN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="deepwalk" sheetId="16" r:id="rId1"/>
@@ -475,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -569,11 +569,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -686,7 +695,6 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -695,6 +703,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1399,6 +1417,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2386,6 +2405,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5232,14 +5252,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11168,7 +11188,7 @@
       <c r="I25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="87" t="s">
+      <c r="J25" s="96" t="s">
         <v>90</v>
       </c>
     </row>
@@ -11186,7 +11206,7 @@
       <c r="I26" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="88"/>
+      <c r="J26" s="97"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -11202,7 +11222,7 @@
       <c r="I27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="88"/>
+      <c r="J27" s="97"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -11218,7 +11238,7 @@
       <c r="I28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="88"/>
+      <c r="J28" s="97"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -11234,7 +11254,7 @@
       <c r="I29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="88"/>
+      <c r="J29" s="97"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="76"/>
@@ -15661,8 +15681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16799,7 +16819,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>96</v>
       </c>
     </row>
@@ -17827,7 +17847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -17843,15 +17863,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="81" t="s">
         <v>98</v>
       </c>
     </row>
@@ -17974,34 +17994,34 @@
       <c r="F6" s="32">
         <v>0.96740000000000004</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="85">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H6" s="86">
+      <c r="H6" s="85">
         <v>0.99009999999999998</v>
       </c>
-      <c r="J6" s="83">
+      <c r="J6" s="82">
         <v>10</v>
       </c>
-      <c r="K6" s="84">
+      <c r="K6" s="83">
         <v>0.80379999999999996</v>
       </c>
-      <c r="L6" s="84">
+      <c r="L6" s="83">
         <v>0.76949999999999996</v>
       </c>
-      <c r="M6" s="84">
+      <c r="M6" s="83">
         <v>0.83809999999999996</v>
       </c>
-      <c r="N6" s="84">
+      <c r="N6" s="83">
         <v>0.82640000000000002</v>
       </c>
-      <c r="O6" s="84">
+      <c r="O6" s="83">
         <v>0.79669999999999996</v>
       </c>
-      <c r="P6" s="84">
+      <c r="P6" s="83">
         <v>0.86529999999999996</v>
       </c>
-      <c r="Q6" s="84">
+      <c r="Q6" s="83">
         <v>0.85640000000000005</v>
       </c>
     </row>
@@ -18409,7 +18429,7 @@
       <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="84" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3">
@@ -18455,7 +18475,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="84" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="3">
@@ -18501,7 +18521,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J19" s="82" t="s">
+      <c r="J19" s="81" t="s">
         <v>79</v>
       </c>
       <c r="K19" s="66"/>
@@ -18850,8 +18870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18957,31 +18977,31 @@
       <c r="O2" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="38">
+      <c r="P2" s="86">
         <v>10</v>
       </c>
-      <c r="Q2" s="38">
+      <c r="Q2" s="87">
         <v>0</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="88">
         <v>0.96189999999999998</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="88">
         <v>0.99099999999999999</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="88">
         <v>0.93269999999999997</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="88">
         <v>0.9365</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="88">
         <v>0.96299999999999997</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="88">
         <v>0.9909</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="89">
         <v>0.98950000000000005</v>
       </c>
     </row>
@@ -19013,31 +19033,31 @@
       <c r="I3" s="26">
         <v>0.9879</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="90">
         <v>10</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="5">
         <v>0.1</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="23">
         <v>0.90180000000000005</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="5">
         <v>0.98880000000000001</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="5">
         <v>0.81479999999999997</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="5">
         <v>0.84219999999999995</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="5">
         <v>0.90969999999999995</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="5">
         <v>0.95609999999999995</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="91">
         <v>0.93210000000000004</v>
       </c>
     </row>
@@ -19069,31 +19089,31 @@
       <c r="I4" s="24">
         <v>0.95189999999999997</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="90">
         <v>10</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="5">
         <v>0.2</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="5">
         <v>0.94730000000000003</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="23">
         <v>0.95520000000000005</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="23">
         <v>0.9395</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="5">
         <v>0.94089999999999996</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="5">
         <v>0.94730000000000003</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="5">
         <v>0.98089999999999999</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="91">
         <v>0.96879999999999999</v>
       </c>
     </row>
@@ -19128,31 +19148,31 @@
       <c r="K5" t="s">
         <v>57</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="90">
         <v>10</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="5">
         <v>0.3</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="5">
         <v>0.94640000000000002</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="23">
         <v>0.96730000000000005</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="23">
         <v>0.92559999999999998</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="5">
         <v>0.92859999999999998</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="5">
         <v>0.94750000000000001</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="5">
         <v>0.98550000000000004</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="91">
         <v>0.98270000000000002</v>
       </c>
     </row>
@@ -19184,31 +19204,31 @@
       <c r="I6" s="24">
         <v>0.93720000000000003</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="92">
         <v>10</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="93">
         <v>0.4</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="95">
         <v>0.90200000000000002</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="93">
         <v>0.98829999999999996</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="93">
         <v>0.81569999999999998</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="93">
         <v>0.84279999999999999</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="93">
         <v>0.90980000000000005</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="93">
         <v>0.95909999999999995</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="94">
         <v>0.94369999999999998</v>
       </c>
     </row>
@@ -19240,10 +19260,10 @@
       <c r="I7" s="24">
         <v>0.93100000000000005</v>
       </c>
-      <c r="P7" s="80">
+      <c r="P7" s="1">
         <v>10</v>
       </c>
-      <c r="Q7" s="80">
+      <c r="Q7" s="1">
         <v>0.5</v>
       </c>
       <c r="R7">
@@ -19296,10 +19316,10 @@
       <c r="I8" s="24">
         <v>0.97009999999999996</v>
       </c>
-      <c r="P8" s="80">
+      <c r="P8" s="1">
         <v>10</v>
       </c>
-      <c r="Q8" s="80">
+      <c r="Q8" s="1">
         <v>0.6</v>
       </c>
       <c r="R8">
@@ -19352,10 +19372,10 @@
       <c r="I9" s="40">
         <v>0.91739999999999999</v>
       </c>
-      <c r="P9" s="80">
+      <c r="P9" s="1">
         <v>10</v>
       </c>
-      <c r="Q9" s="80">
+      <c r="Q9" s="1">
         <v>0.7</v>
       </c>
       <c r="R9">
@@ -19411,10 +19431,10 @@
       <c r="K10" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="80">
+      <c r="P10" s="1">
         <v>10</v>
       </c>
-      <c r="Q10" s="80">
+      <c r="Q10" s="1">
         <v>0.8</v>
       </c>
       <c r="R10">
@@ -19467,13 +19487,13 @@
       <c r="I11" s="24">
         <v>0.97150000000000003</v>
       </c>
-      <c r="P11" s="80">
+      <c r="P11" s="1">
         <v>10</v>
       </c>
-      <c r="Q11" s="80">
+      <c r="Q11" s="1">
         <v>0.9</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="14">
         <v>0.95850000000000002</v>
       </c>
       <c r="S11">
@@ -19526,10 +19546,10 @@
       <c r="O12" t="s">
         <v>95</v>
       </c>
-      <c r="P12" s="80">
+      <c r="P12" s="1">
         <v>10</v>
       </c>
-      <c r="Q12" s="80">
+      <c r="Q12" s="1">
         <v>1</v>
       </c>
       <c r="R12">

--- a/results/Hyperparameter_Tuning/Graph_Embedding_FNN.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_FNN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="deepwalk" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="100">
   <si>
     <t>Accuracy</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>hidden2</t>
-  </si>
-  <si>
-    <t>Without protein features</t>
   </si>
   <si>
     <t>(Except α = 0.2, β = 0)</t>
@@ -342,12 +339,18 @@
   <si>
     <t>Order 1</t>
   </si>
+  <si>
+    <t>Concatenation</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +369,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -582,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -656,7 +674,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -719,6 +736,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,10 +751,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFCCCCFF"/>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFCCECFF"/>
-      <color rgb="FFCCCCFF"/>
-      <color rgb="FFFFCCCC"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
@@ -1417,7 +1441,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2405,7 +2428,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6739,10 +6761,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6751,214 +6773,217 @@
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>16</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
-      <c r="E2">
-        <v>0.8</v>
-      </c>
-      <c r="F2">
-        <v>0.1</v>
-      </c>
-      <c r="G2">
-        <v>0.1333</v>
-      </c>
-      <c r="H2">
-        <v>0.65769999999999995</v>
-      </c>
-      <c r="I2">
-        <v>0.65290000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G3">
-        <v>0.1333</v>
+        <v>0.4</v>
       </c>
       <c r="H3">
-        <v>0.58840000000000003</v>
+        <v>0.65449999999999997</v>
       </c>
       <c r="I3">
-        <v>0.58689999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.6462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0.50339999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.79779999999999995</v>
+      </c>
+      <c r="F4">
+        <v>0.26</v>
+      </c>
+      <c r="G4">
+        <v>0.15029999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.60460000000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.60119999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>64</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>32</v>
       </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-      <c r="D4">
+      <c r="C5">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="D5">
         <v>0.4</v>
       </c>
-      <c r="E4">
-        <v>0.6</v>
-      </c>
-      <c r="F4">
-        <v>0.2</v>
-      </c>
-      <c r="G4">
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="H4">
-        <v>0.54</v>
-      </c>
-      <c r="I4">
-        <v>0.5585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E5">
+        <v>0.60089999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.2671</v>
+      </c>
+      <c r="H5">
+        <v>0.57830000000000004</v>
+      </c>
+      <c r="I5">
+        <v>0.57479999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>128</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>64</v>
       </c>
-      <c r="C5">
-        <v>0.49980000000000002</v>
-      </c>
-      <c r="D5">
-        <v>0.99960000000000004</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.49990000000000001</v>
-      </c>
-      <c r="G5">
-        <v>0.66649999999999998</v>
-      </c>
-      <c r="H5">
-        <v>0.50170000000000003</v>
-      </c>
-      <c r="I5">
-        <v>0.51929999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C6">
+        <v>0.6482</v>
+      </c>
+      <c r="D6">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="E6">
+        <v>0.62560000000000004</v>
+      </c>
+      <c r="F6">
+        <v>0.64180000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.65559999999999996</v>
+      </c>
+      <c r="H6">
+        <v>0.69769999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="98">
         <v>256</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="98">
         <v>128</v>
       </c>
-      <c r="C6">
-        <v>0.60070000000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.60270000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.59870000000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.60109999999999997</v>
-      </c>
-      <c r="G6">
-        <v>0.59950000000000003</v>
-      </c>
-      <c r="H6">
+      <c r="C7" s="99">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="D7" s="99">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="E7" s="99">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="F7" s="99">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G7" s="99">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="H7" s="99">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="I7" s="99">
+        <v>0.67820000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>512</v>
+      </c>
+      <c r="B8">
+        <v>256</v>
+      </c>
+      <c r="C8">
+        <v>0.50270000000000004</v>
+      </c>
+      <c r="D8">
+        <v>0.60719999999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.3982</v>
+      </c>
+      <c r="F8">
+        <v>0.46</v>
+      </c>
+      <c r="G8">
+        <v>0.41370000000000001</v>
+      </c>
+      <c r="H8">
         <v>0.63749999999999996</v>
       </c>
-      <c r="I6">
-        <v>0.61270000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>512</v>
-      </c>
-      <c r="B7">
-        <v>256</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>0.4</v>
-      </c>
-      <c r="E7">
-        <v>0.6</v>
-      </c>
-      <c r="F7">
-        <v>0.2</v>
-      </c>
-      <c r="G7">
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.66059999999999997</v>
-      </c>
-      <c r="I7">
-        <v>0.65100000000000002</v>
+      <c r="I8">
+        <v>0.62819999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8051,7 +8076,7 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="51" t="s">
         <v>17</v>
       </c>
       <c r="M1">
@@ -8086,7 +8111,7 @@
       <c r="I2">
         <v>0.93389999999999995</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="52" t="s">
         <v>16</v>
       </c>
       <c r="M2">
@@ -8122,7 +8147,7 @@
         <v>0.94640000000000002</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -9474,31 +9499,31 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="73">
+      <c r="A23" s="72">
         <v>2</v>
       </c>
-      <c r="B23" s="73">
+      <c r="B23" s="72">
         <v>2</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="61">
         <v>0.9617</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="60">
         <v>0.98650000000000004</v>
       </c>
-      <c r="E23" s="62">
+      <c r="E23" s="61">
         <v>0.93679999999999997</v>
       </c>
-      <c r="F23" s="62">
+      <c r="F23" s="61">
         <v>0.93979999999999997</v>
       </c>
-      <c r="G23" s="62">
+      <c r="G23" s="61">
         <v>0.96260000000000001</v>
       </c>
-      <c r="H23" s="62">
+      <c r="H23" s="61">
         <v>0.99019999999999997</v>
       </c>
-      <c r="I23" s="62">
+      <c r="I23" s="61">
         <v>0.98199999999999998</v>
       </c>
     </row>
@@ -9565,31 +9590,31 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="60">
+      <c r="A27" s="59">
         <v>4</v>
       </c>
-      <c r="B27" s="60">
+      <c r="B27" s="59">
         <v>0.5</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="60">
         <v>0.96230000000000004</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="61">
         <v>0.97670000000000001</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="61">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="61">
         <v>0.94950000000000001</v>
       </c>
-      <c r="G27" s="62">
+      <c r="G27" s="61">
         <v>0.96289999999999998</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="61">
         <v>0.98740000000000006</v>
       </c>
-      <c r="I27" s="62">
+      <c r="I27" s="61">
         <v>0.98640000000000005</v>
       </c>
     </row>
@@ -9752,7 +9777,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>20</v>
@@ -9902,7 +9927,7 @@
       <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="77">
         <v>0.68630000000000002</v>
       </c>
       <c r="D6">
@@ -9914,13 +9939,13 @@
       <c r="F6">
         <v>0.66200000000000003</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="77">
         <v>0.70830000000000004</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="77">
         <v>0.74990000000000001</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="77">
         <v>0.71050000000000002</v>
       </c>
     </row>
@@ -10412,7 +10437,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="79">
+      <c r="A27" s="78">
         <v>128</v>
       </c>
       <c r="B27" s="16">
@@ -10528,7 +10553,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="76" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="3">
@@ -10552,7 +10577,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="76" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="3">
@@ -10660,10 +10685,10 @@
         <v>0.99919999999999998</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -10693,8 +10718,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>52</v>
+      <c r="A5" s="58" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="2">
         <v>0.94930000000000003</v>
@@ -10717,8 +10742,8 @@
       <c r="H5" s="2">
         <v>0.98599999999999999</v>
       </c>
-      <c r="I5" s="54" t="s">
-        <v>59</v>
+      <c r="I5" s="53" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -10752,7 +10777,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="13">
         <v>0.89419999999999999</v>
@@ -10776,7 +10801,7 @@
         <v>0.94410000000000005</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10805,7 +10830,7 @@
         <v>0.87180000000000002</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -10964,7 +10989,7 @@
         <v>40</v>
       </c>
       <c r="L15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -11063,7 +11088,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="70" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="3">
@@ -11088,14 +11113,14 @@
         <v>0.54600000000000004</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="70" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2">
@@ -11120,12 +11145,12 @@
         <v>0.96130000000000004</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
-        <v>81</v>
+      <c r="A23" s="70" t="s">
+        <v>80</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -11135,11 +11160,11 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="70" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="3"/>
@@ -11150,7 +11175,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K24" s="4">
         <v>0.57530000000000003</v>
@@ -11176,7 +11201,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -11186,10 +11211,10 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="96" t="s">
-        <v>90</v>
+        <v>53</v>
+      </c>
+      <c r="J25" s="95" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -11204,13 +11229,13 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="97"/>
+        <v>54</v>
+      </c>
+      <c r="J26" s="96"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -11222,7 +11247,7 @@
       <c r="I27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="97"/>
+      <c r="J27" s="96"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -11238,7 +11263,7 @@
       <c r="I28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="97"/>
+      <c r="J28" s="96"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -11254,10 +11279,10 @@
       <c r="I29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="97"/>
+      <c r="J29" s="96"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
+      <c r="A31" s="75"/>
     </row>
   </sheetData>
   <sortState ref="A3:I12">
@@ -12024,31 +12049,31 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="68">
+      <c r="A30" s="67">
         <v>128</v>
       </c>
-      <c r="B30" s="68">
+      <c r="B30" s="67">
         <v>16</v>
       </c>
-      <c r="C30" s="68">
+      <c r="C30" s="67">
         <v>0.57530000000000003</v>
       </c>
-      <c r="D30" s="68">
+      <c r="D30" s="67">
         <v>0.68389999999999995</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="67">
         <v>0.46679999999999999</v>
       </c>
-      <c r="F30" s="68">
+      <c r="F30" s="67">
         <v>0.56279999999999997</v>
       </c>
-      <c r="G30" s="68">
+      <c r="G30" s="67">
         <v>0.61719999999999997</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="67">
         <v>0.56910000000000005</v>
       </c>
-      <c r="I30" s="68">
+      <c r="I30" s="67">
         <v>0.51649999999999996</v>
       </c>
     </row>
@@ -12272,8 +12297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12294,12 +12319,12 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="62" t="s">
         <v>0</v>
       </c>
     </row>
@@ -12364,7 +12389,7 @@
         <v>0.99919999999999998</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>11</v>
@@ -12402,7 +12427,7 @@
         <v>25</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N4" s="3">
         <v>0.96230000000000004</v>
@@ -12410,7 +12435,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3">
         <v>0.94930000000000003</v>
@@ -12434,7 +12459,7 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>9</v>
@@ -12445,7 +12470,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3">
         <v>0.96230000000000004</v>
@@ -12469,10 +12494,10 @@
         <v>0.98640000000000005</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="65" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="M6" s="64" t="s">
+        <v>62</v>
       </c>
       <c r="N6" s="3">
         <v>0.90290000000000004</v>
@@ -12506,8 +12531,8 @@
       <c r="J7" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="65" t="s">
-        <v>65</v>
+      <c r="M7" s="64" t="s">
+        <v>64</v>
       </c>
       <c r="N7" s="3">
         <v>0.9002</v>
@@ -12515,7 +12540,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3">
         <v>0.89419999999999999</v>
@@ -12539,10 +12564,10 @@
         <v>0.94410000000000005</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8" s="3">
         <v>0.89419999999999999</v>
@@ -12574,10 +12599,10 @@
         <v>0.87180000000000002</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="65" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="M9" s="64" t="s">
+        <v>66</v>
       </c>
       <c r="N9" s="3">
         <v>0.88029999999999997</v>
@@ -12681,16 +12706,16 @@
       <c r="J12" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="65" t="s">
-        <v>69</v>
+      <c r="M12" s="64" t="s">
+        <v>68</v>
       </c>
       <c r="N12" s="3">
         <v>0.83389999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M13" s="65" t="s">
-        <v>71</v>
+      <c r="M13" s="64" t="s">
+        <v>70</v>
       </c>
       <c r="N13" s="3">
         <v>0.82089999999999996</v>
@@ -12698,7 +12723,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I14" s="7"/>
       <c r="M14" s="3" t="s">
@@ -12735,11 +12760,11 @@
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="66"/>
-      <c r="M15" s="65" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="K15" s="65"/>
+      <c r="M15" s="64" t="s">
+        <v>72</v>
       </c>
       <c r="N15" s="3">
         <v>0.66520000000000001</v>
@@ -12747,7 +12772,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3">
         <v>0.90290000000000004</v>
@@ -12775,7 +12800,7 @@
         <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>45</v>
@@ -12786,7 +12811,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3">
         <v>0.9002</v>
@@ -12814,10 +12839,10 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M17" s="65" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="M17" s="64" t="s">
+        <v>74</v>
       </c>
       <c r="N17" s="3">
         <v>0.5</v>
@@ -12825,7 +12850,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="3">
         <v>0.88029999999999997</v>
@@ -12853,12 +12878,12 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3">
         <v>0.83389999999999997</v>
@@ -12886,12 +12911,12 @@
         <v>240</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="3">
         <v>0.82089999999999996</v>
@@ -12919,32 +12944,32 @@
         <v>343</v>
       </c>
       <c r="K20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="75">
+        <v>72</v>
+      </c>
+      <c r="B21" s="74">
         <v>0.66520000000000001</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="74">
         <v>0.56950000000000001</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="74">
         <v>0.76100000000000001</v>
       </c>
-      <c r="E21" s="75">
+      <c r="E21" s="74">
         <v>0.46189999999999998</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="74">
         <v>0.49890000000000001</v>
       </c>
-      <c r="G21" s="75">
+      <c r="G21" s="74">
         <v>0.95179999999999998</v>
       </c>
-      <c r="H21" s="75">
+      <c r="H21" s="74">
         <v>0.94779999999999998</v>
       </c>
       <c r="I21" s="5"/>
@@ -12952,12 +12977,12 @@
         <v>400</v>
       </c>
       <c r="K21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2">
         <v>0.5</v>
@@ -12984,12 +13009,12 @@
         <v>273</v>
       </c>
       <c r="K22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -15681,7 +15706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -15972,31 +15997,31 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="72">
+      <c r="A11" s="71">
         <v>16</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B11" s="73">
         <v>32</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="71">
         <v>0.87760000000000005</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="71">
         <v>0.93179999999999996</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="71">
         <v>0.82330000000000003</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="71">
         <v>0.84089999999999998</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="71">
         <v>0.88400000000000001</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="71">
         <v>0.94</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="71">
         <v>0.93240000000000001</v>
       </c>
     </row>
@@ -16819,8 +16844,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
-        <v>96</v>
+      <c r="A1" s="79" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -16829,10 +16854,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="67" t="s">
+      <c r="A3" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="66" t="s">
         <v>0</v>
       </c>
     </row>
@@ -16865,13 +16890,13 @@
         <v>18</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -16899,7 +16924,7 @@
       <c r="H5">
         <v>0.78139999999999998</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="68">
         <v>5</v>
       </c>
       <c r="K5" s="3">
@@ -16937,16 +16962,16 @@
       <c r="H6" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="63">
         <v>10</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="63">
         <v>0.83450000000000002</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="63">
         <v>0.98829999999999996</v>
       </c>
-      <c r="M6" s="64">
+      <c r="M6" s="63">
         <v>0.99219999999999997</v>
       </c>
     </row>
@@ -17019,7 +17044,7 @@
       <c r="K8" s="3">
         <v>0.66049999999999998</v>
       </c>
-      <c r="L8" s="70">
+      <c r="L8" s="69">
         <v>0.99080000000000001</v>
       </c>
       <c r="M8" s="3">
@@ -17255,8 +17280,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
-        <v>79</v>
+      <c r="A16" s="66" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -17546,8 +17571,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
-        <v>80</v>
+      <c r="A29" s="66" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -17863,16 +17888,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="80" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="81" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -17926,7 +17951,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="69">
+      <c r="A5" s="68">
         <v>5</v>
       </c>
       <c r="B5" s="3">
@@ -17976,52 +18001,52 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="64">
+      <c r="A6" s="63">
         <v>10</v>
       </c>
       <c r="B6" s="32">
         <v>0.96699999999999997</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="63">
         <v>0.97889999999999999</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="63">
         <v>0.95520000000000005</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="63">
         <v>0.95620000000000005</v>
       </c>
       <c r="F6" s="32">
         <v>0.96740000000000004</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="84">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H6" s="85">
+      <c r="H6" s="84">
         <v>0.99009999999999998</v>
       </c>
-      <c r="J6" s="82">
+      <c r="J6" s="81">
         <v>10</v>
       </c>
-      <c r="K6" s="83">
+      <c r="K6" s="82">
         <v>0.80379999999999996</v>
       </c>
-      <c r="L6" s="83">
+      <c r="L6" s="82">
         <v>0.76949999999999996</v>
       </c>
-      <c r="M6" s="83">
+      <c r="M6" s="82">
         <v>0.83809999999999996</v>
       </c>
-      <c r="N6" s="83">
+      <c r="N6" s="82">
         <v>0.82640000000000002</v>
       </c>
-      <c r="O6" s="83">
+      <c r="O6" s="82">
         <v>0.79669999999999996</v>
       </c>
-      <c r="P6" s="83">
+      <c r="P6" s="82">
         <v>0.86529999999999996</v>
       </c>
-      <c r="Q6" s="83">
+      <c r="Q6" s="82">
         <v>0.85640000000000005</v>
       </c>
     </row>
@@ -18144,10 +18169,10 @@
       <c r="F9" s="3">
         <v>0.96319999999999995</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="69">
         <v>0.995</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="69">
         <v>0.99480000000000002</v>
       </c>
       <c r="J9" s="4">
@@ -18429,7 +18454,7 @@
       <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="83" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3">
@@ -18475,7 +18500,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="83" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="3">
@@ -18521,10 +18546,10 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J19" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="66"/>
+      <c r="J19" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="65"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J20" s="11" t="s">
@@ -18870,7 +18895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R3" sqref="R3:X6"/>
     </sheetView>
   </sheetViews>
@@ -18915,8 +18940,8 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="58" t="s">
-        <v>56</v>
+      <c r="K1" s="57" t="s">
+        <v>55</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>20</v>
@@ -18975,33 +19000,33 @@
         <v>0.93230000000000002</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="86">
+        <v>93</v>
+      </c>
+      <c r="P2" s="85">
         <v>10</v>
       </c>
-      <c r="Q2" s="87">
+      <c r="Q2" s="86">
         <v>0</v>
       </c>
-      <c r="R2" s="88">
+      <c r="R2" s="87">
         <v>0.96189999999999998</v>
       </c>
-      <c r="S2" s="88">
+      <c r="S2" s="87">
         <v>0.99099999999999999</v>
       </c>
-      <c r="T2" s="88">
+      <c r="T2" s="87">
         <v>0.93269999999999997</v>
       </c>
-      <c r="U2" s="88">
+      <c r="U2" s="87">
         <v>0.9365</v>
       </c>
-      <c r="V2" s="88">
+      <c r="V2" s="87">
         <v>0.96299999999999997</v>
       </c>
-      <c r="W2" s="88">
+      <c r="W2" s="87">
         <v>0.9909</v>
       </c>
-      <c r="X2" s="89">
+      <c r="X2" s="88">
         <v>0.98950000000000005</v>
       </c>
     </row>
@@ -19033,7 +19058,7 @@
       <c r="I3" s="26">
         <v>0.9879</v>
       </c>
-      <c r="P3" s="90">
+      <c r="P3" s="89">
         <v>10</v>
       </c>
       <c r="Q3" s="5">
@@ -19057,7 +19082,7 @@
       <c r="W3" s="5">
         <v>0.95609999999999995</v>
       </c>
-      <c r="X3" s="91">
+      <c r="X3" s="90">
         <v>0.93210000000000004</v>
       </c>
     </row>
@@ -19089,7 +19114,7 @@
       <c r="I4" s="24">
         <v>0.95189999999999997</v>
       </c>
-      <c r="P4" s="90">
+      <c r="P4" s="89">
         <v>10</v>
       </c>
       <c r="Q4" s="5">
@@ -19113,42 +19138,42 @@
       <c r="W4" s="5">
         <v>0.98089999999999999</v>
       </c>
-      <c r="X4" s="91">
+      <c r="X4" s="90">
         <v>0.96879999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+      <c r="A5" s="55">
         <v>0</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="55">
         <v>30</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="55">
         <v>0.83</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="56">
         <v>0.78610000000000002</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="55">
         <v>0.874</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="55">
         <v>0.68979999999999997</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="55">
         <v>0.73470000000000002</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="55">
         <v>0.96960000000000002</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="55">
         <v>0.95779999999999998</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="90">
+        <v>56</v>
+      </c>
+      <c r="P5" s="89">
         <v>10</v>
       </c>
       <c r="Q5" s="5">
@@ -19172,7 +19197,7 @@
       <c r="W5" s="5">
         <v>0.98550000000000004</v>
       </c>
-      <c r="X5" s="91">
+      <c r="X5" s="90">
         <v>0.98270000000000002</v>
       </c>
     </row>
@@ -19204,31 +19229,31 @@
       <c r="I6" s="24">
         <v>0.93720000000000003</v>
       </c>
-      <c r="P6" s="92">
+      <c r="P6" s="91">
         <v>10</v>
       </c>
-      <c r="Q6" s="93">
+      <c r="Q6" s="92">
         <v>0.4</v>
       </c>
-      <c r="R6" s="95">
+      <c r="R6" s="94">
         <v>0.90200000000000002</v>
       </c>
-      <c r="S6" s="93">
+      <c r="S6" s="92">
         <v>0.98829999999999996</v>
       </c>
-      <c r="T6" s="93">
+      <c r="T6" s="92">
         <v>0.81569999999999998</v>
       </c>
-      <c r="U6" s="93">
+      <c r="U6" s="92">
         <v>0.84279999999999999</v>
       </c>
-      <c r="V6" s="93">
+      <c r="V6" s="92">
         <v>0.90980000000000005</v>
       </c>
-      <c r="W6" s="93">
+      <c r="W6" s="92">
         <v>0.95909999999999995</v>
       </c>
-      <c r="X6" s="94">
+      <c r="X6" s="93">
         <v>0.94369999999999998</v>
       </c>
     </row>
@@ -19401,35 +19426,35 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="A10" s="55">
         <v>0.2</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="55">
         <v>0</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="55">
         <v>0.5</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="55">
         <v>0.2</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="55">
         <v>0.8</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="55">
         <v>0.1</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="55">
         <v>0.1333</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="55">
         <v>0.95720000000000005</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="55">
         <v>0.93079999999999996</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P10" s="1">
         <v>10</v>
@@ -19544,7 +19569,7 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P12" s="1">
         <v>10</v>
@@ -19900,7 +19925,7 @@
         <v>0.91739999999999999</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -20202,15 +20227,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
@@ -20220,133 +20245,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.70469999999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.83589999999999998</v>
-      </c>
-      <c r="D2">
-        <v>0.57350000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.66390000000000005</v>
-      </c>
-      <c r="F2">
-        <v>0.73960000000000004</v>
-      </c>
-      <c r="G2">
-        <v>0.76629999999999998</v>
-      </c>
-      <c r="H2">
-        <v>0.73699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.77059999999999995</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="C3">
-        <v>0.85109999999999997</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="D3">
-        <v>0.69010000000000005</v>
+        <v>0.87890000000000001</v>
       </c>
       <c r="E3">
-        <v>0.7339</v>
+        <v>0.88439999999999996</v>
       </c>
       <c r="F3">
-        <v>0.78769999999999996</v>
+        <v>0.90469999999999995</v>
       </c>
       <c r="G3">
-        <v>0.82709999999999995</v>
+        <v>0.96409999999999996</v>
       </c>
       <c r="H3">
-        <v>0.78580000000000005</v>
+        <v>0.96150000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.58320000000000005</v>
-      </c>
-      <c r="C4">
-        <v>0.94750000000000001</v>
-      </c>
-      <c r="D4">
-        <v>0.21879999999999999</v>
-      </c>
-      <c r="E4">
-        <v>0.55249999999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.69569999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0.58450000000000002</v>
-      </c>
-      <c r="H4">
-        <v>0.54979999999999996</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="97">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="C4" s="97">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="D4" s="97">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="E4" s="97">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="F4" s="97">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="G4" s="97">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="H4" s="97">
+        <v>0.95230000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.70989999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="D5">
+        <v>0.43719999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.63580000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.73780000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.67430000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>0.73680000000000001</v>
-      </c>
-      <c r="C5">
-        <v>0.86050000000000004</v>
-      </c>
-      <c r="D5">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.68979999999999997</v>
-      </c>
-      <c r="F5">
-        <v>0.76570000000000005</v>
-      </c>
-      <c r="G5">
-        <v>0.77690000000000003</v>
-      </c>
-      <c r="H5">
-        <v>0.7208</v>
+      <c r="B6">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.87709999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.67889999999999995</v>
+      </c>
+      <c r="E6">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="G6">
+        <v>0.84470000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.80179999999999996</v>
       </c>
     </row>
   </sheetData>
